--- a/trunk/modelisator/Gestion de projet/2015_05_28 [Modelisator] Step 2/2015_05_28 [Modelisator] Todo list.xlsx
+++ b/trunk/modelisator/Gestion de projet/2015_05_28 [Modelisator] Step 2/2015_05_28 [Modelisator] Todo list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>TO-DO list</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>TODO list on 28/05/2015</t>
+  </si>
+  <si>
+    <t>CQQCOQP</t>
+  </si>
+  <si>
+    <t>Analyse des besoins</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$41:$H$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1034,9 +1040,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$40</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1055,9 +1061,6 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1128,18 +1131,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0,448275862</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1147,7 +1153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1164,11 +1170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119748608"/>
-        <c:axId val="89969728"/>
+        <c:axId val="128595968"/>
+        <c:axId val="98817088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119748608"/>
+        <c:axId val="128595968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89969728"/>
+        <c:crossAx val="98817088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1185,7 +1191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89969728"/>
+        <c:axId val="98817088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119748608"/>
+        <c:crossAx val="128595968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1241,7 +1247,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$41:$H$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1253,9 +1259,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$40</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1274,9 +1280,6 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1347,18 +1350,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0,448275862</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1366,7 +1372,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1383,11 +1389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143844864"/>
-        <c:axId val="89971456"/>
+        <c:axId val="152692224"/>
+        <c:axId val="98818816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143844864"/>
+        <c:axId val="152692224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89971456"/>
+        <c:crossAx val="98818816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1404,7 +1410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89971456"/>
+        <c:axId val="98818816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143844864"/>
+        <c:crossAx val="152692224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1460,7 +1466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$41:$H$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1472,9 +1478,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$40</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1493,9 +1499,6 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1566,18 +1569,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0,448275862</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1585,7 +1591,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1602,11 +1608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143845376"/>
-        <c:axId val="143917632"/>
+        <c:axId val="152692736"/>
+        <c:axId val="152764992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143845376"/>
+        <c:axId val="152692736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143917632"/>
+        <c:crossAx val="152764992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1623,7 +1629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143917632"/>
+        <c:axId val="152764992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +1640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143845376"/>
+        <c:crossAx val="152692736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1679,7 +1685,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$41:$H$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1691,9 +1697,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$40</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1712,9 +1718,6 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1785,18 +1788,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0,448275862</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1804,7 +1810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1821,11 +1827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145166336"/>
-        <c:axId val="143919360"/>
+        <c:axId val="154013696"/>
+        <c:axId val="152766720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145166336"/>
+        <c:axId val="154013696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143919360"/>
+        <c:crossAx val="152766720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1842,7 +1848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143919360"/>
+        <c:axId val="152766720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145166336"/>
+        <c:crossAx val="154013696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1898,7 +1904,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$41:$H$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1910,9 +1916,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$40</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1931,9 +1937,6 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2004,18 +2007,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0,448275862</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2023,7 +2029,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2040,11 +2046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145167872"/>
-        <c:axId val="143921088"/>
+        <c:axId val="154015232"/>
+        <c:axId val="152768448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145167872"/>
+        <c:axId val="154015232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143921088"/>
+        <c:crossAx val="152768448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2061,7 +2067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143921088"/>
+        <c:axId val="152768448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145167872"/>
+        <c:crossAx val="154015232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2117,7 +2123,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$41:$H$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2129,9 +2135,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$40</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -2150,9 +2156,6 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2223,18 +2226,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0,448275862</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2242,7 +2248,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2259,11 +2265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145168384"/>
-        <c:axId val="143922816"/>
+        <c:axId val="154015744"/>
+        <c:axId val="152770176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145168384"/>
+        <c:axId val="154015744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143922816"/>
+        <c:crossAx val="152770176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2280,7 +2286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143922816"/>
+        <c:axId val="152770176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145168384"/>
+        <c:crossAx val="154015744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2822,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,44 +3048,40 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="73" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="70"/>
       <c r="C10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="35">
         <v>0.5</v>
@@ -3092,22 +3094,20 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="70"/>
       <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="11" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="32">
-        <v>2</v>
+      <c r="H11" s="35">
+        <v>0.5</v>
       </c>
       <c r="I11" s="17">
         <v>0</v>
@@ -3117,22 +3117,22 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="72"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="12"/>
       <c r="H12" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="17">
         <v>0</v>
@@ -3144,17 +3144,15 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="70" t="s">
-        <v>83</v>
-      </c>
+      <c r="B13" s="72"/>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="12"/>
@@ -3169,20 +3167,24 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="70"/>
+      <c r="B14" s="70" t="s">
+        <v>83</v>
+      </c>
       <c r="C14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="12"/>
       <c r="H14" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="17">
         <v>0</v>
@@ -3192,19 +3194,15 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="58" t="s">
-        <v>86</v>
-      </c>
+      <c r="B15" s="70"/>
       <c r="C15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="12"/>
@@ -3219,17 +3217,19 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="58" t="s">
+        <v>86</v>
+      </c>
       <c r="C16" s="10" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="12"/>
@@ -3244,15 +3244,23 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="32"/>
+      <c r="H17" s="32">
+        <v>0.5</v>
+      </c>
       <c r="I17" s="17">
         <v>0</v>
       </c>
@@ -3263,21 +3271,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="9"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="32">
-        <v>0.5</v>
-      </c>
+      <c r="H18" s="32"/>
       <c r="I18" s="17">
         <v>0</v>
       </c>
@@ -3288,16 +3288,20 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="12"/>
       <c r="H19" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="17">
         <v>0</v>
@@ -3310,17 +3314,15 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="C20" s="29"/>
       <c r="D20" s="8"/>
       <c r="E20" s="11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="12"/>
       <c r="H20" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="17">
         <v>0</v>
@@ -3329,24 +3331,21 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="40" t="s">
-        <v>93</v>
-      </c>
+      <c r="B21" s="40"/>
       <c r="C21" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="12"/>
       <c r="H21" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="17">
         <v>0</v>
@@ -3355,21 +3354,24 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="41"/>
+      <c r="B22" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="11" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="12"/>
       <c r="H22" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="17">
         <v>0</v>
@@ -3379,22 +3381,20 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="39"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="11" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="12"/>
       <c r="H23" s="32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="17">
         <v>0</v>
@@ -3404,22 +3404,22 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="12"/>
       <c r="H24" s="32">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="17">
         <v>0</v>
@@ -3431,20 +3431,20 @@
     </row>
     <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="41"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="12"/>
       <c r="H25" s="32">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="I25" s="17">
         <v>0</v>
@@ -3456,22 +3456,20 @@
     </row>
     <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="59" t="s">
-        <v>91</v>
-      </c>
+      <c r="B26" s="41"/>
       <c r="C26" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="12"/>
       <c r="H26" s="32">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I26" s="17">
         <v>0</v>
@@ -3481,17 +3479,25 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="47"/>
+      <c r="B27" s="59" t="s">
+        <v>91</v>
+      </c>
       <c r="C27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="32"/>
+      <c r="H27" s="32">
+        <v>4</v>
+      </c>
       <c r="I27" s="17">
         <v>0</v>
       </c>
@@ -3500,17 +3506,13 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="47" t="s">
-        <v>90</v>
-      </c>
+      <c r="B28" s="47"/>
       <c r="C28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D28" s="8"/>
       <c r="E28" s="11"/>
       <c r="F28" s="9"/>
       <c r="G28" s="12"/>
@@ -3523,14 +3525,16 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="47"/>
+      <c r="B29" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="C29" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="9"/>
@@ -3544,23 +3548,19 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="47"/>
       <c r="C30" s="10" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E30" s="11"/>
       <c r="F30" s="9"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="32">
-        <v>2</v>
-      </c>
+      <c r="H30" s="32"/>
       <c r="I30" s="17">
         <v>0</v>
       </c>
@@ -3569,24 +3569,22 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="58" t="s">
-        <v>89</v>
-      </c>
+      <c r="B31" s="47"/>
       <c r="C31" s="10" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="12"/>
       <c r="H31" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="17">
         <v>0</v>
@@ -3596,24 +3594,26 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="19"/>
+      <c r="B32" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="21">
+      <c r="H32" s="32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="17">
         <v>0</v>
       </c>
       <c r="J32" s="3"/>
@@ -3621,50 +3621,50 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="34">
-        <f>SUM(H4:H32)</f>
-        <v>41.5</v>
-      </c>
-      <c r="I33" s="36">
-        <f>(SUM(I4:I32)/(COUNT(I4:I32)*3))*3</f>
-        <v>0.44827586206896552</v>
+      <c r="B33" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="21">
+        <v>0</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="22">
-        <v>0</v>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="64"/>
+      <c r="H34" s="34">
+        <f>SUM(H4:H33)</f>
+        <v>41.5</v>
+      </c>
+      <c r="I34" s="36">
+        <f>(SUM(I4:I33)/(COUNT(I4:I33)*3))*3</f>
+        <v>0.44827586206896552</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -3675,19 +3675,21 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="23">
-        <v>1</v>
+      <c r="D35" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="I35" s="22">
+        <v>0</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3700,17 +3702,17 @@
       <c r="C36" s="6"/>
       <c r="D36" s="68"/>
       <c r="E36" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3723,52 +3725,60 @@
       <c r="C37" s="6"/>
       <c r="D37" s="68"/>
       <c r="E37" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="49">
-        <v>1</v>
-      </c>
-      <c r="H37" s="49"/>
+        <v>77</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="5"/>
       <c r="I37" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="53"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="49">
+        <v>1</v>
+      </c>
+      <c r="H38" s="49"/>
+      <c r="I38" s="23">
+        <v>3</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="51"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3793,12 +3803,12 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="7"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="51"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3900,7 +3910,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="52"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7"/>
@@ -3915,7 +3925,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="7"/>
@@ -4001,9 +4011,21 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="I55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -4020,16 +4042,19 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4057,7 +4082,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I34:I37 I4:I6 I8:I32</xm:sqref>
+          <xm:sqref>I35:I38 I4:I6 I8:I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{D6A814B7-A3D4-45CD-891D-A36459736B0D}">
@@ -4080,7 +4105,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I33</xm:sqref>
+          <xm:sqref>I34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{EB050179-070D-4140-B049-D0ED05FE6EE2}">

--- a/trunk/modelisator/Gestion de projet/2015_05_28 [Modelisator] Step 2/2015_05_28 [Modelisator] Todo list.xlsx
+++ b/trunk/modelisator/Gestion de projet/2015_05_28 [Modelisator] Step 2/2015_05_28 [Modelisator] Todo list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>TO-DO list</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Cahier des charges (alias CdC)</t>
   </si>
   <si>
-    <t>Spécifier l’ensemble des fonctionnalités Métier et Technique</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lot de travail </t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>&lt;10%</t>
   </si>
   <si>
-    <t>Réafectation des ressources sur d'autre projet</t>
-  </si>
-  <si>
     <t>retour en entreprise</t>
   </si>
   <si>
@@ -204,18 +198,12 @@
     <t xml:space="preserve">Rapport technique + spécifications </t>
   </si>
   <si>
-    <t>le choix technologique, la description des traitements, le nouveau planning</t>
-  </si>
-  <si>
     <t>Analyse des requis</t>
   </si>
   <si>
     <t>Test d'intégration et test unitaire</t>
   </si>
   <si>
-    <t>CDC + tous les elements réaliser</t>
-  </si>
-  <si>
     <t>Rapport + PPT</t>
   </si>
   <si>
@@ -279,9 +267,6 @@
     <t>Répartition en taches</t>
   </si>
   <si>
-    <t>1ère partie a rendre</t>
-  </si>
-  <si>
     <t>Conception détaillée</t>
   </si>
   <si>
@@ -309,15 +294,9 @@
     <t>Liste des exigences</t>
   </si>
   <si>
-    <t>Recenser les contraintes</t>
-  </si>
-  <si>
     <t>Liste des contraintes</t>
   </si>
   <si>
-    <t>Justifier la définition</t>
-  </si>
-  <si>
     <t>TODO list on 28/05/2015</t>
   </si>
   <si>
@@ -325,6 +304,36 @@
   </si>
   <si>
     <t>Analyse des besoins</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Justification et méthode</t>
+  </si>
+  <si>
+    <t>Réaffectation des ressources sur d'autre projet</t>
+  </si>
+  <si>
+    <t>Analyse contraintes</t>
+  </si>
+  <si>
+    <t>Analyse Faisabilité</t>
+  </si>
+  <si>
+    <t>Etat de l'art</t>
+  </si>
+  <si>
+    <t>Analyse de l'existant</t>
+  </si>
+  <si>
+    <t>La description des fonctions; L’enchainement des écrans (avec un maquettage)</t>
+  </si>
+  <si>
+    <t>Reprend l'ensemble des analyses</t>
+  </si>
+  <si>
+    <t>Le choix technologique, la description des traitements, le nouveau planning</t>
   </si>
 </sst>
 </file>
@@ -763,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -819,9 +828,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,6 +885,111 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,102 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1028,7 +1043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$41:$H$41</c:f>
+              <c:f>Feuil1!$B$42:$H$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1040,9 +1055,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$40</c:f>
+              <c:f>Feuil1!$I$2:$I$41</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1053,7 +1068,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1062,14 +1077,11 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1134,18 +1146,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,448275862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0,586206897</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1153,7 +1168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$41</c:f>
+              <c:f>Feuil1!$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1170,11 +1185,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128595968"/>
-        <c:axId val="98817088"/>
+        <c:axId val="127743488"/>
+        <c:axId val="97899584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128595968"/>
+        <c:axId val="127743488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98817088"/>
+        <c:crossAx val="97899584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +1206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98817088"/>
+        <c:axId val="97899584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128595968"/>
+        <c:crossAx val="127743488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1247,7 +1262,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$41:$H$41</c:f>
+              <c:f>Feuil1!$B$42:$H$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1259,9 +1274,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$40</c:f>
+              <c:f>Feuil1!$I$2:$I$41</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1272,7 +1287,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1281,14 +1296,11 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1353,18 +1365,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,448275862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0,586206897</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1372,7 +1387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$41</c:f>
+              <c:f>Feuil1!$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1389,11 +1404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152692224"/>
-        <c:axId val="98818816"/>
+        <c:axId val="151843328"/>
+        <c:axId val="97901312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152692224"/>
+        <c:axId val="151843328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98818816"/>
+        <c:crossAx val="97901312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1410,7 +1425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98818816"/>
+        <c:axId val="97901312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152692224"/>
+        <c:crossAx val="151843328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,7 +1481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$41:$H$41</c:f>
+              <c:f>Feuil1!$B$42:$H$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1478,9 +1493,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$40</c:f>
+              <c:f>Feuil1!$I$2:$I$41</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1491,7 +1506,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1500,14 +1515,11 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1572,18 +1584,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,448275862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0,586206897</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1591,7 +1606,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$41</c:f>
+              <c:f>Feuil1!$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1608,11 +1623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152692736"/>
-        <c:axId val="152764992"/>
+        <c:axId val="151844864"/>
+        <c:axId val="151913024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152692736"/>
+        <c:axId val="151844864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152764992"/>
+        <c:crossAx val="151913024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1629,7 +1644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152764992"/>
+        <c:axId val="151913024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152692736"/>
+        <c:crossAx val="151844864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,7 +1700,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$41:$H$41</c:f>
+              <c:f>Feuil1!$B$42:$H$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1697,9 +1712,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$40</c:f>
+              <c:f>Feuil1!$I$2:$I$41</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1710,7 +1725,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1719,14 +1734,11 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1791,18 +1803,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,448275862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0,586206897</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1810,7 +1825,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$41</c:f>
+              <c:f>Feuil1!$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1827,11 +1842,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154013696"/>
-        <c:axId val="152766720"/>
+        <c:axId val="151846400"/>
+        <c:axId val="151914752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154013696"/>
+        <c:axId val="151846400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,7 +1855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152766720"/>
+        <c:crossAx val="151914752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1848,7 +1863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152766720"/>
+        <c:axId val="151914752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +1874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154013696"/>
+        <c:crossAx val="151846400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1904,7 +1919,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$41:$H$41</c:f>
+              <c:f>Feuil1!$B$42:$H$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1916,9 +1931,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$40</c:f>
+              <c:f>Feuil1!$I$2:$I$41</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1929,7 +1944,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1938,14 +1953,11 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2010,18 +2022,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,448275862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0,586206897</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2029,7 +2044,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$41</c:f>
+              <c:f>Feuil1!$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2046,11 +2061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154015232"/>
-        <c:axId val="152768448"/>
+        <c:axId val="127742976"/>
+        <c:axId val="151916480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154015232"/>
+        <c:axId val="127742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152768448"/>
+        <c:crossAx val="151916480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2067,7 +2082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152768448"/>
+        <c:axId val="151916480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154015232"/>
+        <c:crossAx val="127742976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2123,7 +2138,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$41:$H$41</c:f>
+              <c:f>Feuil1!$B$42:$H$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2135,9 +2150,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$40</c:f>
+              <c:f>Feuil1!$I$2:$I$41</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -2148,7 +2163,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -2157,14 +2172,11 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2229,18 +2241,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,448275862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0,586206897</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2248,7 +2263,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$41</c:f>
+              <c:f>Feuil1!$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2265,11 +2280,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154015744"/>
-        <c:axId val="152770176"/>
+        <c:axId val="153286656"/>
+        <c:axId val="151918208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154015744"/>
+        <c:axId val="153286656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152770176"/>
+        <c:crossAx val="151918208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2286,7 +2301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152770176"/>
+        <c:axId val="151918208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154015744"/>
+        <c:crossAx val="153286656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2828,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I9" sqref="C9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,46 +2880,46 @@
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="B2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>48</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2913,26 +2928,26 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="71" t="s">
-        <v>81</v>
+      <c r="B4" s="68" t="s">
+        <v>77</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="16">
         <v>42145</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="62">
         <v>2</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="44">
         <v>3</v>
       </c>
       <c r="J4" s="3"/>
@@ -2942,21 +2957,21 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="70"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="12">
         <v>42145</v>
       </c>
-      <c r="H5" s="66"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="17">
         <v>3</v>
       </c>
@@ -2967,25 +2982,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="70"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="12">
         <v>42145</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="41">
         <v>0.5</v>
       </c>
       <c r="I6" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2994,21 +3009,21 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="70"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="12">
         <v>42145</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="42">
         <v>0.5</v>
       </c>
       <c r="I7" s="17">
@@ -3021,23 +3036,23 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="72"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G8" s="12">
-        <v>42145</v>
-      </c>
-      <c r="H8" s="46">
+        <v>42152</v>
+      </c>
+      <c r="H8" s="42">
         <v>0.5</v>
       </c>
       <c r="I8" s="17">
@@ -3050,63 +3065,65 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="73" t="s">
-        <v>82</v>
+      <c r="B9" s="70" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="17"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="70"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>0.5</v>
       </c>
       <c r="I10" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="70"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>0.5</v>
       </c>
       <c r="I11" s="17">
@@ -3117,26 +3134,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="70"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="10" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>7</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="9"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="32">
-        <v>2</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -3144,20 +3155,22 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="72"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="10" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="32">
-        <v>1</v>
+      <c r="H13" s="31">
+        <v>2</v>
       </c>
       <c r="I13" s="17">
         <v>0</v>
@@ -3167,23 +3180,23 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="70" t="s">
-        <v>83</v>
-      </c>
+      <c r="B14" s="69"/>
       <c r="C14" s="10" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <v>1</v>
       </c>
       <c r="I14" s="17">
@@ -3194,20 +3207,26 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="70"/>
+      <c r="B15" s="67" t="s">
+        <v>79</v>
+      </c>
       <c r="C15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="32">
-        <v>0.5</v>
+      <c r="H15" s="31">
+        <v>1</v>
       </c>
       <c r="I15" s="17">
         <v>0</v>
@@ -3217,23 +3236,23 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="58" t="s">
-        <v>86</v>
-      </c>
+      <c r="B16" s="67"/>
       <c r="C16" s="10" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="12"/>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <v>0.5</v>
       </c>
       <c r="I16" s="17">
@@ -3244,21 +3263,25 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="71" t="s">
+        <v>81</v>
+      </c>
       <c r="C17" s="10" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="12"/>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>0.5</v>
       </c>
       <c r="I17" s="17">
@@ -3269,15 +3292,25 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="32"/>
+      <c r="H18" s="31">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="17">
         <v>0</v>
       </c>
@@ -3288,21 +3321,17 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="B19" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="36"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="32">
-        <v>0.5</v>
-      </c>
+      <c r="H19" s="31"/>
       <c r="I19" s="17">
         <v>0</v>
       </c>
@@ -3313,16 +3342,20 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="32">
-        <v>1</v>
+      <c r="H20" s="31">
+        <v>0.5</v>
       </c>
       <c r="I20" s="17">
         <v>0</v>
@@ -3334,18 +3367,18 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B21" s="74"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="8"/>
       <c r="E21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="32">
-        <v>0.5</v>
+      <c r="H21" s="31">
+        <v>1</v>
       </c>
       <c r="I21" s="17">
         <v>0</v>
@@ -3354,24 +3387,23 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="40" t="s">
-        <v>93</v>
-      </c>
+      <c r="B22" s="74"/>
       <c r="C22" s="10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="32">
-        <v>1</v>
+      <c r="H22" s="31">
+        <v>0.5</v>
       </c>
       <c r="I22" s="17">
         <v>0</v>
@@ -3380,21 +3412,24 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="41"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="10" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="32">
-        <v>2</v>
+      <c r="H23" s="31">
+        <v>1</v>
       </c>
       <c r="I23" s="17">
         <v>0</v>
@@ -3404,22 +3439,22 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G24" s="12"/>
-      <c r="H24" s="32">
-        <v>0.5</v>
+      <c r="H24" s="31">
+        <v>2</v>
       </c>
       <c r="I24" s="17">
         <v>0</v>
@@ -3429,22 +3464,24 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="10" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="32">
-        <v>1.5</v>
+      <c r="H25" s="31">
+        <v>0.5</v>
       </c>
       <c r="I25" s="17">
         <v>0</v>
@@ -3456,20 +3493,22 @@
     </row>
     <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="41"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="32">
-        <v>15</v>
+      <c r="H26" s="31">
+        <v>1.5</v>
       </c>
       <c r="I26" s="17">
         <v>0</v>
@@ -3481,22 +3520,24 @@
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="59" t="s">
-        <v>91</v>
+      <c r="B27" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="32">
-        <v>4</v>
+      <c r="H27" s="31">
+        <v>15</v>
       </c>
       <c r="I27" s="17">
         <v>0</v>
@@ -3506,17 +3547,27 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="C28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G28" s="12"/>
-      <c r="H28" s="32"/>
+      <c r="H28" s="31">
+        <v>4</v>
+      </c>
       <c r="I28" s="17">
         <v>0</v>
       </c>
@@ -3525,21 +3576,21 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="47" t="s">
-        <v>90</v>
+      <c r="B29" s="70" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="32"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="17">
         <v>0</v>
       </c>
@@ -3548,19 +3599,21 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="47"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="12"/>
-      <c r="H30" s="32"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="17">
         <v>0</v>
       </c>
@@ -3569,23 +3622,21 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="47"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="10" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G31" s="12"/>
-      <c r="H31" s="32">
-        <v>2</v>
-      </c>
+      <c r="H31" s="31"/>
       <c r="I31" s="17">
         <v>0</v>
       </c>
@@ -3594,24 +3645,24 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="58" t="s">
-        <v>89</v>
-      </c>
+      <c r="B32" s="69"/>
       <c r="C32" s="10" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G32" s="12"/>
-      <c r="H32" s="32">
-        <v>3</v>
+      <c r="H32" s="31">
+        <v>2</v>
       </c>
       <c r="I32" s="17">
         <v>0</v>
@@ -3621,24 +3672,28 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="19"/>
+      <c r="B33" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="21">
+      <c r="H33" s="31">
+        <v>3</v>
+      </c>
+      <c r="I33" s="17">
         <v>0</v>
       </c>
       <c r="J33" s="3"/>
@@ -3646,50 +3701,52 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="34">
-        <f>SUM(H4:H33)</f>
-        <v>41.5</v>
-      </c>
-      <c r="I34" s="36">
-        <f>(SUM(I4:I33)/(COUNT(I4:I33)*3))*3</f>
-        <v>0.44827586206896552</v>
+      <c r="B34" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="43" t="s">
+        <v>83</v>
+      </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="22">
-        <v>0</v>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="61"/>
+      <c r="H35" s="33">
+        <f>SUM(H4:H34)</f>
+        <v>41.5</v>
+      </c>
+      <c r="I35" s="35">
+        <f>(SUM(I4:I34)/(COUNT(I4:I34)*3))*3</f>
+        <v>0.5862068965517242</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3700,19 +3757,21 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="D36" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="23">
-        <v>1</v>
+      <c r="H36" s="30"/>
+      <c r="I36" s="21">
+        <v>0</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3723,19 +3782,19 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>75</v>
+      <c r="D37" s="65"/>
+      <c r="E37" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>70</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="23">
-        <v>2</v>
+      <c r="I37" s="22">
+        <v>1</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -3746,54 +3805,62 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="49">
-        <v>1</v>
-      </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="23">
-        <v>3</v>
+      <c r="D38" s="65"/>
+      <c r="E38" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="22">
+        <v>2</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="53"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="45">
+        <v>1</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="22">
+        <v>3</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="51"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="49"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3805,10 +3872,10 @@
       <c r="C41" s="6"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="51"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="51"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3818,12 +3885,12 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="7"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3925,7 +3992,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="52"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="7"/>
@@ -3940,7 +4007,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="48"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="7"/>
@@ -4026,9 +4093,21 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="I56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4046,15 +4125,21 @@
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I62" s="4"/>
     </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I63" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4082,7 +4167,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I35:I38 I4:I6 I8:I33</xm:sqref>
+          <xm:sqref>I36:I39 I4:I6 I8:I34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{D6A814B7-A3D4-45CD-891D-A36459736B0D}">
@@ -4105,7 +4190,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I34</xm:sqref>
+          <xm:sqref>I35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{EB050179-070D-4140-B049-D0ED05FE6EE2}">

--- a/trunk/modelisator/Gestion de projet/2015_05_28 [Modelisator] Step 2/2015_05_28 [Modelisator] Todo list.xlsx
+++ b/trunk/modelisator/Gestion de projet/2015_05_28 [Modelisator] Step 2/2015_05_28 [Modelisator] Todo list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>TO-DO list</t>
   </si>
@@ -30,9 +30,6 @@
     <t>But</t>
   </si>
   <si>
-    <t>Cahier des charges (alias CdC)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lot de travail </t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Analyse des besoins</t>
   </si>
   <si>
-    <t>Document</t>
-  </si>
-  <si>
     <t>Justification et méthode</t>
   </si>
   <si>
@@ -327,13 +321,31 @@
     <t>Analyse de l'existant</t>
   </si>
   <si>
-    <t>La description des fonctions; L’enchainement des écrans (avec un maquettage)</t>
-  </si>
-  <si>
-    <t>Reprend l'ensemble des analyses</t>
-  </si>
-  <si>
     <t>Le choix technologique, la description des traitements, le nouveau planning</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>Q + O</t>
+  </si>
+  <si>
+    <t>Justication phase d'analyse</t>
+  </si>
+  <si>
+    <t>Justication phase de définitions</t>
+  </si>
+  <si>
+    <t>Reprend toutes les analyses</t>
+  </si>
+  <si>
+    <t>Faisabilité du projet</t>
+  </si>
+  <si>
+    <t>Analyse de faisabilité</t>
+  </si>
+  <si>
+    <t>C + O</t>
   </si>
 </sst>
 </file>
@@ -1043,11 +1055,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$42:$H$42</c:f>
+              <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41,5</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1055,9 +1067,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$41</c:f>
+              <c:f>Feuil1!$I$2:$I$42</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1076,20 +1088,26 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1149,18 +1167,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,586206897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0,8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1168,7 +1189,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$42</c:f>
+              <c:f>Feuil1!$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1185,11 +1206,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127743488"/>
-        <c:axId val="97899584"/>
+        <c:axId val="116209152"/>
+        <c:axId val="86299712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127743488"/>
+        <c:axId val="116209152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97899584"/>
+        <c:crossAx val="86299712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1206,7 +1227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97899584"/>
+        <c:axId val="86299712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127743488"/>
+        <c:crossAx val="116209152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,11 +1283,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$42:$H$42</c:f>
+              <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41,5</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1274,9 +1295,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$41</c:f>
+              <c:f>Feuil1!$I$2:$I$42</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1295,20 +1316,26 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1368,18 +1395,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,586206897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0,8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1387,7 +1417,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$42</c:f>
+              <c:f>Feuil1!$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1404,11 +1434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151843328"/>
-        <c:axId val="97901312"/>
+        <c:axId val="140301824"/>
+        <c:axId val="86301440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151843328"/>
+        <c:axId val="140301824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97901312"/>
+        <c:crossAx val="86301440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1425,7 +1455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97901312"/>
+        <c:axId val="86301440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151843328"/>
+        <c:crossAx val="140301824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,11 +1511,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$42:$H$42</c:f>
+              <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41,5</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1493,9 +1523,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$41</c:f>
+              <c:f>Feuil1!$I$2:$I$42</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1514,20 +1544,26 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1587,18 +1623,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,586206897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0,8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1606,7 +1645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$42</c:f>
+              <c:f>Feuil1!$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1623,11 +1662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151844864"/>
-        <c:axId val="151913024"/>
+        <c:axId val="140302336"/>
+        <c:axId val="140313152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151844864"/>
+        <c:axId val="140302336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151913024"/>
+        <c:crossAx val="140313152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1644,7 +1683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151913024"/>
+        <c:axId val="140313152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151844864"/>
+        <c:crossAx val="140302336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,11 +1739,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$42:$H$42</c:f>
+              <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41,5</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1712,9 +1751,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$41</c:f>
+              <c:f>Feuil1!$I$2:$I$42</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1733,20 +1772,26 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1806,18 +1851,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,586206897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0,8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1825,7 +1873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$42</c:f>
+              <c:f>Feuil1!$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1842,11 +1890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151846400"/>
-        <c:axId val="151914752"/>
+        <c:axId val="141627392"/>
+        <c:axId val="140314880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151846400"/>
+        <c:axId val="141627392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151914752"/>
+        <c:crossAx val="140314880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151914752"/>
+        <c:axId val="140314880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151846400"/>
+        <c:crossAx val="141627392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1919,11 +1967,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$42:$H$42</c:f>
+              <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41,5</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1931,9 +1979,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$41</c:f>
+              <c:f>Feuil1!$I$2:$I$42</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1952,20 +2000,26 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2025,18 +2079,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,586206897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0,8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2044,7 +2101,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$42</c:f>
+              <c:f>Feuil1!$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2061,11 +2118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127742976"/>
-        <c:axId val="151916480"/>
+        <c:axId val="141628928"/>
+        <c:axId val="140316608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127742976"/>
+        <c:axId val="141628928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151916480"/>
+        <c:crossAx val="140316608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2082,7 +2139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151916480"/>
+        <c:axId val="140316608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2093,7 +2150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127742976"/>
+        <c:crossAx val="141628928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,11 +2195,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$42:$H$42</c:f>
+              <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41,5</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2150,9 +2207,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$41</c:f>
+              <c:f>Feuil1!$I$2:$I$42</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -2171,20 +2228,26 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2244,18 +2307,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,586206897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0,8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2263,7 +2329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$42</c:f>
+              <c:f>Feuil1!$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2280,11 +2346,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153286656"/>
-        <c:axId val="151918208"/>
+        <c:axId val="141629440"/>
+        <c:axId val="140318336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153286656"/>
+        <c:axId val="141629440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151918208"/>
+        <c:crossAx val="140318336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2301,7 +2367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151918208"/>
+        <c:axId val="140318336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153286656"/>
+        <c:crossAx val="141629440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,10 +2909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I9" sqref="C9:I9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,7 +2921,7 @@
     <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2881,7 +2947,7 @@
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -2898,28 +2964,28 @@
     <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2929,17 +2995,17 @@
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="16">
         <v>42145</v>
@@ -2959,14 +3025,14 @@
       <c r="A5" s="3"/>
       <c r="B5" s="67"/>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="12">
         <v>42145</v>
@@ -2984,14 +3050,14 @@
       <c r="A6" s="3"/>
       <c r="B6" s="67"/>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="G6" s="12">
         <v>42145</v>
@@ -3015,10 +3081,10 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G7" s="12">
         <v>42145</v>
@@ -3034,20 +3100,20 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="69"/>
       <c r="C8" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="12">
         <v>42152</v>
@@ -3066,19 +3132,27 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="17"/>
+      <c r="F9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="12">
+        <v>42152</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="17">
+        <v>3</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -3088,16 +3162,18 @@
       <c r="A10" s="3"/>
       <c r="B10" s="67"/>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="G10" s="12">
+        <v>42152</v>
+      </c>
       <c r="H10" s="34">
         <v>0.5</v>
       </c>
@@ -3113,21 +3189,23 @@
       <c r="A11" s="3"/>
       <c r="B11" s="67"/>
       <c r="C11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="G11" s="12">
+        <v>42152</v>
+      </c>
       <c r="H11" s="34">
         <v>0.5</v>
       </c>
       <c r="I11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3138,42 +3216,52 @@
       <c r="A12" s="3"/>
       <c r="B12" s="67"/>
       <c r="C12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="12">
+        <v>42152</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="67"/>
       <c r="C13" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12">
+        <v>42152</v>
+      </c>
       <c r="H13" s="31">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3182,22 +3270,22 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="69"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="10" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="17">
         <v>0</v>
@@ -3207,29 +3295,29 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="67" t="s">
-        <v>79</v>
-      </c>
+      <c r="B15" s="69"/>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="31">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="G15" s="12">
+        <v>42152</v>
+      </c>
+      <c r="H15" s="42">
+        <v>0.5</v>
       </c>
       <c r="I15" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3238,22 +3326,24 @@
     </row>
     <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="67"/>
+      <c r="B16" s="67" t="s">
+        <v>78</v>
+      </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="17">
         <v>0</v>
@@ -3263,22 +3353,20 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="71" t="s">
-        <v>81</v>
-      </c>
+      <c r="B17" s="67"/>
       <c r="C17" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="31">
@@ -3292,20 +3380,22 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="72"/>
+      <c r="B18" s="71" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" s="10" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="31">
@@ -3319,19 +3409,25 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="F19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="31">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="17">
         <v>0</v>
       </c>
@@ -3342,21 +3438,17 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="B20" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="36"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="31">
-        <v>0.5</v>
-      </c>
+      <c r="H20" s="31"/>
       <c r="I20" s="17">
         <v>0</v>
       </c>
@@ -3368,17 +3460,19 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="74"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="17">
         <v>0</v>
@@ -3391,19 +3485,17 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="74"/>
-      <c r="C22" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="C22" s="28"/>
       <c r="D22" s="8"/>
       <c r="E22" s="11" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="17">
         <v>0</v>
@@ -3412,24 +3504,23 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="74"/>
       <c r="C23" s="10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I23" s="17">
         <v>0</v>
@@ -3438,23 +3529,24 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="74"/>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="11" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="17">
         <v>0</v>
@@ -3464,24 +3556,22 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="74"/>
       <c r="C25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="11" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="31">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I25" s="17">
         <v>0</v>
@@ -3491,24 +3581,24 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="75"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="10" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="17">
         <v>0</v>
@@ -3520,24 +3610,22 @@
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="56" t="s">
-        <v>88</v>
-      </c>
+      <c r="B27" s="75"/>
       <c r="C27" s="10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="31">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="I27" s="17">
         <v>0</v>
@@ -3549,24 +3637,24 @@
     </row>
     <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="55" t="s">
-        <v>86</v>
+      <c r="B28" s="56" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="31">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
@@ -3576,21 +3664,27 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="55" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="F29" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="31"/>
+      <c r="H29" s="31">
+        <v>4</v>
+      </c>
       <c r="I29" s="17">
         <v>0</v>
       </c>
@@ -3599,18 +3693,18 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="67"/>
+      <c r="B30" s="70" t="s">
+        <v>84</v>
+      </c>
       <c r="C30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="11"/>
       <c r="F30" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="31"/>
@@ -3622,18 +3716,18 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="67"/>
       <c r="C31" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="31"/>
@@ -3645,25 +3739,21 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="69"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="10" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32" s="12"/>
-      <c r="H32" s="31">
-        <v>2</v>
-      </c>
+      <c r="H32" s="31"/>
       <c r="I32" s="17">
         <v>0</v>
       </c>
@@ -3672,26 +3762,24 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="54" t="s">
-        <v>84</v>
-      </c>
+      <c r="B33" s="69"/>
       <c r="C33" s="10" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="17">
         <v>0</v>
@@ -3701,26 +3789,28 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="19" t="s">
-        <v>32</v>
+      <c r="B34" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="H34" s="31">
+        <v>3</v>
+      </c>
+      <c r="I34" s="17">
         <v>0</v>
       </c>
       <c r="J34" s="3"/>
@@ -3728,50 +3818,52 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="33">
-        <f>SUM(H4:H34)</f>
-        <v>41.5</v>
-      </c>
-      <c r="I35" s="35">
-        <f>(SUM(I4:I34)/(COUNT(I4:I34)*3))*3</f>
-        <v>0.5862068965517242</v>
+      <c r="B35" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="20">
+        <v>0</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="21">
-        <v>0</v>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="61"/>
+      <c r="H36" s="33">
+        <f>SUM(H4:H35)</f>
+        <v>41</v>
+      </c>
+      <c r="I36" s="35">
+        <f>(SUM(I4:I35)/(COUNT(I4:I35)*3))*3</f>
+        <v>0.8125</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3782,19 +3874,21 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="D37" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="22">
-        <v>1</v>
+      <c r="H37" s="30"/>
+      <c r="I37" s="21">
+        <v>0</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -3807,17 +3901,17 @@
       <c r="C38" s="6"/>
       <c r="D38" s="65"/>
       <c r="E38" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3830,52 +3924,60 @@
       <c r="C39" s="6"/>
       <c r="D39" s="65"/>
       <c r="E39" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="45">
-        <v>1</v>
-      </c>
-      <c r="H39" s="45"/>
+        <v>72</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="5"/>
       <c r="I39" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="49"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="45">
+        <v>1</v>
+      </c>
+      <c r="H40" s="45"/>
+      <c r="I40" s="22">
+        <v>3</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="47"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="49"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3900,12 +4002,12 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="7"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4007,7 +4109,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="48"/>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="7"/>
@@ -4022,7 +4124,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="48"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="7"/>
@@ -4108,9 +4210,21 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="I57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4127,19 +4241,22 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I64" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4147,7 +4264,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{E3498A30-83C0-4301-BB3F-4F71D556465A}">
+          <x14:cfRule type="iconSet" priority="8" id="{E3498A30-83C0-4301-BB3F-4F71D556465A}">
             <x14:iconSet iconSet="4TrafficLights" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4167,10 +4284,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I36:I39 I4:I6 I8:I34</xm:sqref>
+          <xm:sqref>I37:I40 I4:I6 I16:I35 I8:I13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{D6A814B7-A3D4-45CD-891D-A36459736B0D}">
+          <x14:cfRule type="iconSet" priority="6" id="{D6A814B7-A3D4-45CD-891D-A36459736B0D}">
             <x14:iconSet iconSet="4TrafficLights" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4190,10 +4307,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I35</xm:sqref>
+          <xm:sqref>I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{EB050179-070D-4140-B049-D0ED05FE6EE2}">
+          <x14:cfRule type="iconSet" priority="5" id="{EB050179-070D-4140-B049-D0ED05FE6EE2}">
             <x14:iconSet iconSet="4TrafficLights" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4214,6 +4331,52 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{2DC5F36A-D659-4142-BA87-3D53F6EDD30E}">
+            <x14:iconSet iconSet="4TrafficLights" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{2E5C3297-69AB-4C73-9FD9-FB8D47706E9B}">
+            <x14:iconSet iconSet="4TrafficLights" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/modelisator/Gestion de projet/2015_05_28 [Modelisator] Step 2/2015_05_28 [Modelisator] Todo list.xlsx
+++ b/trunk/modelisator/Gestion de projet/2015_05_28 [Modelisator] Step 2/2015_05_28 [Modelisator] Todo list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="4275" yWindow="-180" windowWidth="12390" windowHeight="10050" activeTab="6"/>
@@ -17,7 +17,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId8"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1022,6 +1022,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1057,9 +1060,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1080,28 +1098,28 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1170,7 +1188,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,8125</c:v>
+                  <c:v>0,96875</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1206,20 +1224,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116209152"/>
-        <c:axId val="86299712"/>
+        <c:axId val="330778848"/>
+        <c:axId val="330779240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116209152"/>
+        <c:axId val="330778848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86299712"/>
+        <c:crossAx val="330779240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86299712"/>
+        <c:axId val="330779240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116209152"/>
+        <c:crossAx val="330778848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,9 +1304,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1308,28 +1342,28 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1398,7 +1432,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,8125</c:v>
+                  <c:v>0,96875</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1434,20 +1468,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140301824"/>
-        <c:axId val="86301440"/>
+        <c:axId val="330780416"/>
+        <c:axId val="330772968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140301824"/>
+        <c:axId val="330780416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86301440"/>
+        <c:crossAx val="330772968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86301440"/>
+        <c:axId val="330772968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140301824"/>
+        <c:crossAx val="330780416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1513,9 +1548,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1536,28 +1586,28 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1626,7 +1676,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,8125</c:v>
+                  <c:v>0,96875</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1662,20 +1712,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140302336"/>
-        <c:axId val="140313152"/>
+        <c:axId val="330775320"/>
+        <c:axId val="435989064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140302336"/>
+        <c:axId val="330775320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140313152"/>
+        <c:crossAx val="435989064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1683,7 +1734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140313152"/>
+        <c:axId val="435989064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140302336"/>
+        <c:crossAx val="330775320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1741,9 +1792,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1764,28 +1830,28 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1854,7 +1920,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,8125</c:v>
+                  <c:v>0,96875</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1890,20 +1956,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141627392"/>
-        <c:axId val="140314880"/>
+        <c:axId val="435987496"/>
+        <c:axId val="435988672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141627392"/>
+        <c:axId val="435987496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140314880"/>
+        <c:crossAx val="435988672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140314880"/>
+        <c:axId val="435988672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141627392"/>
+        <c:crossAx val="435987496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1969,9 +2036,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1992,28 +2074,28 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2082,7 +2164,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,8125</c:v>
+                  <c:v>0,96875</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -2118,20 +2200,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141628928"/>
-        <c:axId val="140316608"/>
+        <c:axId val="435984360"/>
+        <c:axId val="435986320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141628928"/>
+        <c:axId val="435984360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140316608"/>
+        <c:crossAx val="435986320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2139,7 +2222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140316608"/>
+        <c:axId val="435986320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141628928"/>
+        <c:crossAx val="435984360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2197,9 +2280,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2220,28 +2318,28 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2310,7 +2408,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,8125</c:v>
+                  <c:v>0,96875</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -2346,20 +2444,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141629440"/>
-        <c:axId val="140318336"/>
+        <c:axId val="435981616"/>
+        <c:axId val="435983184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141629440"/>
+        <c:axId val="435981616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140318336"/>
+        <c:crossAx val="435983184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2367,7 +2466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140318336"/>
+        <c:axId val="435983184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141629440"/>
+        <c:crossAx val="435981616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2665,7 +2764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2700,7 +2799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2911,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,7 +3165,7 @@
         <v>0.5</v>
       </c>
       <c r="I6" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3205,7 +3304,7 @@
         <v>0.5</v>
       </c>
       <c r="I11" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3232,7 +3331,7 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3261,7 +3360,7 @@
         <v>0.5</v>
       </c>
       <c r="I13" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3863,7 +3962,7 @@
       </c>
       <c r="I36" s="35">
         <f>(SUM(I4:I35)/(COUNT(I4:I35)*3))*3</f>
-        <v>0.8125</v>
+        <v>0.96875</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
